--- a/biology/Médecine/1673_en_santé_et_médecine/1673_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1673_en_santé_et_médecine/1673_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1673_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1673_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1673 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1673_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1673_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le 20 janvier, une déclaration royale, confirmée par le lit de justice du 23 mai 1673, autorisait les démonstrateurs nommés au Jardin royal « de faire toutes opérations chirurgicales, dissections et démonstrations anatomiques » et leur donnait la priorité dans l’obtention des corps de condamnés[1].
-Le 10 février, c'est la première de la comédie Le Malade imaginaire de Molière, où les anti-circulateurs sont ridiculisés par le personnage de Diafoirus. Molière meurt à la quatrième représentation, et est inhumé le 21 février[2].
-En mars, Louis XIV casse une mesure du Parlement de Paris qui s'opposait à l'enseignement de l'anatomie au Jardin du Roy. Pierre Dionis peut y enseigner la circulation du sang, ce qui met fin à la querelle des circulateurs et des anti-circulateurs[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le 20 janvier, une déclaration royale, confirmée par le lit de justice du 23 mai 1673, autorisait les démonstrateurs nommés au Jardin royal « de faire toutes opérations chirurgicales, dissections et démonstrations anatomiques » et leur donnait la priorité dans l’obtention des corps de condamnés.
+Le 10 février, c'est la première de la comédie Le Malade imaginaire de Molière, où les anti-circulateurs sont ridiculisés par le personnage de Diafoirus. Molière meurt à la quatrième représentation, et est inhumé le 21 février.
+En mars, Louis XIV casse une mesure du Parlement de Paris qui s'opposait à l'enseignement de l'anatomie au Jardin du Roy. Pierre Dionis peut y enseigner la circulation du sang, ce qui met fin à la querelle des circulateurs et des anti-circulateurs.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1673_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1673_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Arrêt de la chambre de l'Arsenal qui met l'ordre de Notre-Dame du Mont-Carmel et de Saint-Lazare de Jérusalem en possession réelle de toutes les maladreries, léproseries et commanderies où il y a des administrateurs pourvus par le roi ou son grand aumônier, et des lieux pieux où l'hospitalité n'a pas été gardée[3].
-La Chirurgie militaire ou l'art de guairir les playes d'arquebusade par Léonard Tassin (1620-1687)[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arrêt de la chambre de l'Arsenal qui met l'ordre de Notre-Dame du Mont-Carmel et de Saint-Lazare de Jérusalem en possession réelle de toutes les maladreries, léproseries et commanderies où il y a des administrateurs pourvus par le roi ou son grand aumônier, et des lieux pieux où l'hospitalité n'a pas été gardée.
+La Chirurgie militaire ou l'art de guairir les playes d'arquebusade par Léonard Tassin (1620-1687).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1673_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1673_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>10 août : Johann Conrad Dippel (mort en 1734), théologien, alchimiste et médecin allemand.
-11 août : Richard Mead (mort en 1754), médecin britannique[5].
+11 août : Richard Mead (mort en 1754), médecin britannique.
 21 novembre : Nicolas Mahudel (mort en 1747), jésuite et médecin français.</t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1673_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1673_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>6 mai : Werner Rolfinck (né en 1599), médecin, naturaliste, chimiste et botaniste allemand.
 17 août : Reinier de Graaf (né en 1641), médecin et anatomiste néerlandais.
